--- a/Hardware/WPT Charger system BOM - NON PCB PARTS/Transmitter_WPT_SYSTEM_BOM_RevA.xlsx
+++ b/Hardware/WPT Charger system BOM - NON PCB PARTS/Transmitter_WPT_SYSTEM_BOM_RevA.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franci\Documents\SCHOOL\EENG-4315-031\Prototype\WPT Charger system BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franci\Documents\GitHub\HEC_2_senior_design\Hardware\WPT Charger system BOM - NON PCB PARTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC29E9E4-7188-41B7-9832-D314CB2699D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EDC5E3-8BAA-491F-9AA7-045A0CDDE427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADC_Test_Board" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ADC_Test_Board!$A$1:$K$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>ITEM</t>
   </si>
@@ -82,9 +89,6 @@
   </si>
   <si>
     <t>Mouser</t>
-  </si>
-  <si>
-    <t>Order Quantity</t>
   </si>
   <si>
     <t>DT62PW480D</t>
@@ -161,16 +165,137 @@
   </si>
   <si>
     <t>https://www.mouser.com/catalog/specsheets/Bud_PU%20Series_NEMA_6PIP68_PC_Enclosure.pdf</t>
+  </si>
+  <si>
+    <t>VERIFIED BY:</t>
+  </si>
+  <si>
+    <t>David Flory</t>
+  </si>
+  <si>
+    <t>COIL RECEIVER /
+TRANSMITTER</t>
+  </si>
+  <si>
+    <t>TRANSMITTER</t>
+  </si>
+  <si>
+    <t>Printed Circuit Board</t>
+  </si>
+  <si>
+    <t>Alpha Wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5859 RD005</t>
+  </si>
+  <si>
+    <t>602-5859-100-03</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/14/AW_Product_Specification-1837536.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quantity</t>
+  </si>
+  <si>
+    <t>Hook-up Wire 14AWG 19/27 PTFE  Spool 304.8 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hook-up Wire 14AWG 19/27 PTFE Spool 304.8 m  </t>
+  </si>
+  <si>
+    <t>COIL RECEIVER</t>
+  </si>
+  <si>
+    <t>COIL TRANSMITTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Terminals SOLIS DIN 0.5-1.0</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>571-165291</t>
+  </si>
+  <si>
+    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=165291&amp;DocType=Customer+Drawing&amp;DocLang=English&amp;PartCntxt=165291&amp;DocFormat=pdf</t>
+  </si>
+  <si>
+    <t>JLC PCB</t>
+  </si>
+  <si>
+    <t>Custom made</t>
+  </si>
+  <si>
+    <t>304.8m</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/290/NewAgeEnclosures_12092019_404012_cube_r1_0-1673104.pdf</t>
+  </si>
+  <si>
+    <t>Coil enclosure</t>
+  </si>
+  <si>
+    <t>Enclosures, Boxes, &amp; Cases SENSOR CUBE WHITE</t>
+  </si>
+  <si>
+    <t>New Age Enclosures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+789-S1A-404012</t>
+  </si>
+  <si>
+    <t>789-S1A-404012</t>
+  </si>
+  <si>
+    <t>RRC-SMBus Cable</t>
+  </si>
+  <si>
+    <t>RRC</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/836/DS_SMBus_Battery_Cable_B-1360935.pdf</t>
+  </si>
+  <si>
+    <t>328-RRCSMBUSCABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver </t>
+  </si>
+  <si>
+    <t>8965K22</t>
+  </si>
+  <si>
+    <t>Super-Conductive 101 Copper TubesCopper Tubing  1/8"  3ft spool</t>
+  </si>
+  <si>
+    <t>Mcmaster-Carr</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/tubing/od~1-8/material~copper/</t>
+  </si>
+  <si>
+    <t>COIL
+TRANSMITTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COIL RECEIVER
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +466,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -542,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -877,6 +1008,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -929,16 +1071,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,9 +1105,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,9 +1112,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -986,19 +1119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1040,6 +1164,29 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="42" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1097,6 +1244,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ADC_Test_Board"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="P1">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,10 +1562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,11 +1577,10 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="5" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
@@ -1424,365 +1592,733 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="58">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="23"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="D2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12">
         <v>44230</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="14"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="14"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="33" t="s">
+      <c r="H7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="54" t="s">
+      <c r="K7" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="55" t="s">
+      <c r="O7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="P7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="Q7" s="50" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="37">
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="31">
         <v>53</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="32">
         <f>B8*$P$1</f>
-        <v>2</v>
-      </c>
-      <c r="M8" s="39">
+        <v>1</v>
+      </c>
+      <c r="M8" s="33">
         <f>K8*L8</f>
-        <v>106</v>
-      </c>
-      <c r="N8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="41">
+      <c r="O8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="35">
         <v>6</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="43">
+        <v>21</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="37">
         <v>25.3</v>
       </c>
-      <c r="L9" s="34">
-        <f t="shared" ref="L9:L10" si="0">B9*$P$1</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" ref="M9:M10" si="1">K9*L9</f>
-        <v>50.6</v>
+      <c r="L9" s="28">
+        <f t="shared" ref="L9:L18" si="0">B9*$P$1</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ref="M9:M18" si="1">K9*L9</f>
+        <v>25.3</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="35">
+      <c r="O9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="29">
         <v>8</v>
       </c>
-      <c r="Q9" s="44" t="s">
+      <c r="Q9" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="16">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="34">
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="37">
+        <v>6.68</v>
+      </c>
+      <c r="L10" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="s">
+        <v>6.68</v>
+      </c>
+      <c r="N10" s="56">
+        <v>5</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="38"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="37">
+        <v>6.69</v>
+      </c>
+      <c r="L11" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="1"/>
+        <v>6.69</v>
+      </c>
+      <c r="N11" s="56">
+        <v>5</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="38"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="37">
+        <v>1.98</v>
+      </c>
+      <c r="L12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="24"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="37">
+        <v>1.98</v>
+      </c>
+      <c r="L13" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="38"/>
+    </row>
+    <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="58">
+        <v>165291</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="L14" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="44"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="38"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46">
-        <f t="shared" ref="L11" si="2">B11*$P$1</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="47">
-        <f t="shared" ref="M11" si="3">K11*L11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="31" t="s">
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="37">
+        <v>6.94</v>
+      </c>
+      <c r="L15" s="28">
+        <f>B15*$P$1</f>
+        <v>0.67</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6498000000000008</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="38"/>
+    </row>
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>9</v>
       </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="49"/>
+      <c r="B16" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="37">
+        <v>6.94</v>
+      </c>
+      <c r="L16" s="28">
+        <f>B16*$P$1</f>
+        <v>0.67</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6498000000000008</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="38"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="51">
-        <f>SUM(M8:M11)</f>
-        <v>156.6</v>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="66">
+        <v>22.35</v>
+      </c>
+      <c r="L17" s="1" t="e">
+        <f>[1]ADC_Test_Board!$P$1*[1]ADC_Test_Board!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="61" t="e">
+        <f>K17*L17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="65"/>
+    </row>
+    <row r="18" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
+        <v>11</v>
+      </c>
+      <c r="B18" s="40">
+        <v>2</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="39">
+        <v>5.7</v>
+      </c>
+      <c r="L18" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="41">
+        <f t="shared" si="1"/>
+        <v>11.4</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="42"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="43"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L19" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="45" t="e">
+        <f>SUM(M8:M18)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -1790,8 +2326,14 @@
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1" xr:uid="{E6727338-35BA-402B-A20F-C659136D8B4B}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{A181E83D-60D7-4F43-AE6C-FF4245762256}"/>
+    <hyperlink ref="I12" r:id="rId3" xr:uid="{2B3A2CF4-F6D5-4893-B77B-F1E415AE5E93}"/>
+    <hyperlink ref="I13" r:id="rId4" xr:uid="{881F2189-6F78-42F0-8908-87DBFF6014A9}"/>
+    <hyperlink ref="I14" r:id="rId5" xr:uid="{6AE0B2E0-BCBF-4D7A-8A2A-79ABF749E5C6}"/>
+    <hyperlink ref="I18" r:id="rId6" xr:uid="{C50E7B47-FA5D-4867-A794-7E34A6D0AD69}"/>
+    <hyperlink ref="I15" r:id="rId7" xr:uid="{BC8DAA5E-FD62-4782-9CD0-CAA1EE4B4D77}"/>
+    <hyperlink ref="I16" r:id="rId8" xr:uid="{CB893EEC-88DC-4DDE-A4E0-341D9E51F9AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="52" fitToHeight="0" orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Hardware/WPT Charger system BOM - NON PCB PARTS/Transmitter_WPT_SYSTEM_BOM_RevA.xlsx
+++ b/Hardware/WPT Charger system BOM - NON PCB PARTS/Transmitter_WPT_SYSTEM_BOM_RevA.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franci\Documents\GitHub\HEC_2_senior_design\Hardware\WPT Charger system BOM - NON PCB PARTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EDC5E3-8BAA-491F-9AA7-045A0CDDE427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC83228-89BD-4A6C-97CF-29E3571E1F8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADC_Test_Board" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ADC_Test_Board!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1244,25 +1240,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ADC_Test_Board"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="P1">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1568,7 +1545,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,13 +2220,13 @@
       <c r="K17" s="66">
         <v>22.35</v>
       </c>
-      <c r="L17" s="1" t="e">
-        <f>[1]ADC_Test_Board!$P$1*[1]ADC_Test_Board!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="61" t="e">
+      <c r="L17" s="28">
+        <f>B17*$P$1</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="61">
         <f>K17*L17</f>
-        <v>#REF!</v>
+        <v>22.35</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>9</v>
@@ -2316,9 +2293,9 @@
       <c r="L19" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="45" t="e">
+      <c r="M19" s="45">
         <f>SUM(M8:M18)</f>
-        <v>#REF!</v>
+        <v>136.91559999999998</v>
       </c>
     </row>
   </sheetData>
